--- a/biology/Zoologie/Eupithecia_semirufescens/Eupithecia_semirufescens.xlsx
+++ b/biology/Zoologie/Eupithecia_semirufescens/Eupithecia_semirufescens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eupithecia semirufescens est une espèce de lépidoptères (papillons) de la famille des Geometridae. On peut la trouver au Brésil.
 </t>
@@ -511,7 +523,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(en) William Warren, « Descriptions of new genera and species of South American geometrid moths », Proceedings of the United States National Museum, Washington, Inconnu, vol. 30, no 1456,‎ 1906, p. 399–557 (ISSN 0096-3801 et 2377-6560, OCLC 1259735, DOI 10.5479/SI.00963801.1456.399)</t>
         </is>
